--- a/data/operators.xlsx
+++ b/data/operators.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b494536d0e93f0f/Documenti/1 Tests/Codici che funzionano/Test web^N3/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_461E9A12037529BB7484832CCFA70959D1CCBCD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44103510-97C8-41BF-8295-2D98E3B6756C}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Foglio1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="OPERATORS" sheetId="2" r:id="rId2"/>
+    <sheet name="MACCHINE" sheetId="3" r:id="rId3"/>
+    <sheet name="LINEE" sheetId="4" r:id="rId4"/>
+    <sheet name="CANTIERI" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>OPERATORI</t>
   </si>
@@ -107,26 +117,37 @@
   </si>
   <si>
     <t>ZAPPOLI ANDREA</t>
+  </si>
+  <si>
+    <t>VALORE</t>
+  </si>
+  <si>
+    <t>MICHELANGELO RIVA</t>
+  </si>
+  <si>
+    <t>WET</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>CANTIERE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -145,45 +166,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,34 +197,34 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -235,71 +238,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -323,53 +326,50 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,7 +379,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -388,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,10 +405,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -437,7 +437,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -450,12 +450,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -467,301 +468,445 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="3" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.58203125" customWidth="1"/>
+    <col min="2" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:D26 C1:D1 E1:G1 A1:A26 E2:G26" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A27" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>